--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999990586707302</v>
+        <v>0.9999805566007045</v>
       </c>
       <c r="E2">
-        <v>0.9999990586707302</v>
+        <v>0.9999805566007045</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999593901141012</v>
+        <v>0.9934485633398517</v>
       </c>
       <c r="E3">
-        <v>0.9999593901141012</v>
+        <v>0.9934485633398517</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.885736332142457E-52</v>
+        <v>7.552765487614542E-38</v>
       </c>
       <c r="E4">
-        <v>1.885736332142457E-52</v>
+        <v>7.552765487614542E-38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.6132705476758121</v>
+        <v>0.0002091154765998324</v>
       </c>
       <c r="E5">
-        <v>0.6132705476758121</v>
+        <v>0.0002091154765998324</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999377551688</v>
+        <v>0.9999999049182763</v>
       </c>
       <c r="E6">
-        <v>0.9999999377551688</v>
+        <v>0.9999999049182763</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999522578858</v>
+        <v>0.9999999853018455</v>
       </c>
       <c r="E7">
-        <v>4.774211415092822E-08</v>
+        <v>1.469815447130429E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.8687997918908084</v>
+        <v>0.9514863751556601</v>
       </c>
       <c r="E8">
-        <v>0.1312002081091916</v>
+        <v>0.04851362484433985</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999527527</v>
+        <v>0.9999999999861076</v>
       </c>
       <c r="E9">
-        <v>4.724731716976294E-11</v>
+        <v>1.389244275173951E-11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.10537411491298E-06</v>
+        <v>3.159487743012221E-07</v>
       </c>
       <c r="E10">
-        <v>0.9999948946258851</v>
+        <v>0.9999996840512257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.350178619478317E-46</v>
+        <v>4.510089935594352E-44</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>15.77797412872314</v>
+        <v>14.68696594238281</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
